--- a/Documentation/Wiki Documents/4. PROJECT MANAGEMENT/Timeline/Timeline.xlsx
+++ b/Documentation/Wiki Documents/4. PROJECT MANAGEMENT/Timeline/Timeline.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Teh Kaixin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sean\Desktop\Ulink\Documentation\Wiki Documents\4. PROJECT MANAGEMENT\Timeline\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,6 +16,9 @@
     <sheet name="v1" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -63,8 +66,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <colors>
     <mruColors>
       <color rgb="FFFF5B5B"/>
@@ -13359,6 +13390,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -13394,6 +13442,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -13569,7 +13634,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="5:11" x14ac:dyDescent="0.25">
